--- a/person/changyanxin/呦呦育儿_用户故事.xlsx
+++ b/person/changyanxin/呦呦育儿_用户故事.xlsx
@@ -72,7 +72,7 @@
     <t>记录宝宝成长</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望能有一个平台可以供我记录宝宝成长过程中的趣事</t>
+    <t>作为一个宝妈或者宝爸，希望能有一个平台可以供我记录宝宝成长过程中的趣事，以便不遗失宝宝成长过程中的趣事</t>
   </si>
   <si>
     <t>Initia</t>
@@ -84,97 +84,97 @@
     <t>记录宝爸宝妈心情</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望不仅能记录宝宝成长也能记录每日随想</t>
+    <t>作为一个宝妈或者宝爸，希望不仅能记录宝宝成长也能记录父母的每日随想，以便将来有所回忆</t>
   </si>
   <si>
     <t>宝宝通过图片认识简单文字</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望能有一个app使得宝宝对一些文字有一些基本的认知</t>
+    <t>作为一个宝妈或者宝爸，希望能有一个app使得宝宝对一些文字有一些基本的认知，以便使宝宝在入学前有基本的认知</t>
   </si>
   <si>
     <t>提供故事播放素材</t>
   </si>
   <si>
-    <t>作为一个宝爸或者宝妈，希望app可以教新手爸妈讲故事</t>
+    <t>作为一个宝爸或者宝妈，希望app可以教新手爸妈讲故事，以便新手爸妈讲出更好的故事</t>
   </si>
   <si>
     <t>播放歌曲哄宝宝入睡</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望能有一个app能有催眠曲集锦哄宝宝入睡</t>
+    <t>作为一个宝妈或者宝爸，希望能有一个app能有催眠曲集锦哄宝宝入睡，以便宝宝能更好地入眠</t>
   </si>
   <si>
     <t>宝宝通过图片认识世界</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望app代替绘本通过图片认识世界</t>
+    <t>作为一个宝妈或者宝爸，希望app代替绘本通过图片认识世界，以便宝宝在入学前能对世界有更好地认知</t>
   </si>
   <si>
     <t>找寻进行亲子互动的方式</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望可以找到进行亲子游戏的具体形式</t>
+    <t>作为一个宝妈或者宝爸，希望可以找到进行亲子游戏的具体形式，以便在宝宝游戏的同时能够增进亲子感情，促进宝宝成长</t>
   </si>
   <si>
     <t>找寻给宝宝进行穿搭的show</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望可以使宝宝变成潮娃</t>
+    <t>作为一个宝妈或者宝爸，希望可以使宝宝变成潮娃，以便宝宝能够享受较为舒适的生活</t>
   </si>
   <si>
     <t>找到护理新生婴儿的方法</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望宝宝可以更健康地成长</t>
+    <t>作为一个宝妈或者宝爸，希望宝宝可以更健康地成长吗，以便宝宝少生病</t>
   </si>
   <si>
     <t>找到教育宝宝的方法</t>
   </si>
   <si>
-    <t>作为一个宝妈或者宝爸，希望宝宝对世界认知更深刻、性格更优秀</t>
+    <t>作为一个宝妈或者宝爸，希望宝宝对世界认知更深刻、性格更优秀，以便宝宝能更好地适应将来的生活</t>
   </si>
   <si>
     <t>找到适合宝宝吃的东西</t>
   </si>
   <si>
-    <t>作为一个宝爸或者宝妈，希望宝宝可以摄取到足够的营养使得宝宝茁壮成长</t>
+    <t>作为一个宝爸或者宝妈，希望宝宝可以摄取到足够的营养使得宝宝茁壮成长，以便宝宝健康长大</t>
   </si>
   <si>
     <t>找到护理宝妈的方法</t>
   </si>
   <si>
-    <t>作为一个宝爸或者宝妈，希望宝妈可以摄取到足够的营养供母体和婴儿成长</t>
+    <t>作为一个宝爸或者宝妈，希望宝妈可以摄取到足够的营养供母体和婴儿成长，以便宝妈在孕期能更好地护理自己的身体</t>
   </si>
   <si>
     <t>找到护理宝妈身材恢复的方法</t>
   </si>
   <si>
-    <t>作为一个宝妈，希望在产后半年内可以尽快恢复身材达到与之前得生活接轨</t>
+    <t>作为一个宝妈，希望在产后半年内可以尽快恢复身材，以便不与之前的生活脱轨</t>
   </si>
   <si>
     <t>对宝妈心理健康的呵护</t>
   </si>
   <si>
-    <t>作为一个产妇亲属，希望有小知识帮助我们更科学的呵护产妇的心理健康，以避免产后抑郁</t>
+    <t>作为一个产妇亲属，希望有小知识帮助我们更科学的呵护产妇的心理健康，以便避免产后抑郁的发生</t>
   </si>
   <si>
     <t>宝妈产后饮食</t>
   </si>
   <si>
-    <t>作为一个产妇家属，希望能找到科学的饮食计划使母体身体更快地恢复</t>
+    <t>作为一个产妇家属，希望能找到科学的饮食计划使母体身体更快地恢复，以便宝妈能更快地回到自己的生活</t>
   </si>
   <si>
     <t>提供发帖平台</t>
   </si>
   <si>
-    <t>作为一个宝爸或者宝妈，希望app可以提供一个发帖平台供大家一起讨论育儿经</t>
+    <t>作为一个宝爸或者宝妈，希望app可以提供一个发帖平台供大家一起讨论育儿经，以便能更好地照顾宝宝</t>
   </si>
   <si>
     <t>提供可关注的私人好友</t>
   </si>
   <si>
-    <t>作为一个宝爸或者宝妈，希望能有一些专业的育婴师可以关注学习育儿小知识</t>
+    <t>作为一个宝爸或者宝妈，希望能有一些专业的育婴师可以关注学习育儿小知识，以便能更好地照顾宝宝</t>
   </si>
 </sst>
 </file>
@@ -182,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -208,6 +208,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -216,29 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +255,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +276,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -276,8 +299,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,64 +346,11 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,6 +361,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,19 +451,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,151 +517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,11 +555,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,30 +614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,30 +635,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -652,6 +643,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1445,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1483,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1597,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1787,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1822,10 +1822,10 @@
         <v>20</v>
       </c>
       <c r="H17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
